--- a/Excel/Produk.xlsx
+++ b/Excel/Produk.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cool Yeah\Semester 3\SBD\FP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cool Yeah\Semester 3\SBD\FP_SBD\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C72488F-23B3-40CD-82B0-CBCF225E0A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79085DC-6BF0-4D94-BD2C-7FDB53C48BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="19200" windowHeight="10510" xr2:uid="{B8AE4681-1EB3-4E48-8DA6-1D57F7267D11}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{B8AE4681-1EB3-4E48-8DA6-1D57F7267D11}"/>
   </bookViews>
   <sheets>
     <sheet name="Produk" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>Nama</t>
   </si>
@@ -198,6 +198,156 @@
   </si>
   <si>
     <t>Mata Bor</t>
+  </si>
+  <si>
+    <t>PR001</t>
+  </si>
+  <si>
+    <t>PR002</t>
+  </si>
+  <si>
+    <t>PR003</t>
+  </si>
+  <si>
+    <t>PR004</t>
+  </si>
+  <si>
+    <t>PR005</t>
+  </si>
+  <si>
+    <t>PR006</t>
+  </si>
+  <si>
+    <t>PR007</t>
+  </si>
+  <si>
+    <t>PR008</t>
+  </si>
+  <si>
+    <t>PR009</t>
+  </si>
+  <si>
+    <t>PR010</t>
+  </si>
+  <si>
+    <t>PR011</t>
+  </si>
+  <si>
+    <t>PR012</t>
+  </si>
+  <si>
+    <t>PR013</t>
+  </si>
+  <si>
+    <t>PR014</t>
+  </si>
+  <si>
+    <t>PR015</t>
+  </si>
+  <si>
+    <t>PR016</t>
+  </si>
+  <si>
+    <t>PR017</t>
+  </si>
+  <si>
+    <t>PR018</t>
+  </si>
+  <si>
+    <t>PR019</t>
+  </si>
+  <si>
+    <t>PR020</t>
+  </si>
+  <si>
+    <t>PR021</t>
+  </si>
+  <si>
+    <t>PR022</t>
+  </si>
+  <si>
+    <t>PR023</t>
+  </si>
+  <si>
+    <t>PR024</t>
+  </si>
+  <si>
+    <t>PR025</t>
+  </si>
+  <si>
+    <t>PR026</t>
+  </si>
+  <si>
+    <t>PR027</t>
+  </si>
+  <si>
+    <t>PR028</t>
+  </si>
+  <si>
+    <t>PR029</t>
+  </si>
+  <si>
+    <t>PR030</t>
+  </si>
+  <si>
+    <t>PR031</t>
+  </si>
+  <si>
+    <t>PR032</t>
+  </si>
+  <si>
+    <t>PR033</t>
+  </si>
+  <si>
+    <t>PR034</t>
+  </si>
+  <si>
+    <t>PR035</t>
+  </si>
+  <si>
+    <t>PR036</t>
+  </si>
+  <si>
+    <t>PR037</t>
+  </si>
+  <si>
+    <t>PR038</t>
+  </si>
+  <si>
+    <t>PR039</t>
+  </si>
+  <si>
+    <t>PR040</t>
+  </si>
+  <si>
+    <t>PR041</t>
+  </si>
+  <si>
+    <t>PR042</t>
+  </si>
+  <si>
+    <t>PR043</t>
+  </si>
+  <si>
+    <t>PR044</t>
+  </si>
+  <si>
+    <t>PR045</t>
+  </si>
+  <si>
+    <t>PR046</t>
+  </si>
+  <si>
+    <t>PR047</t>
+  </si>
+  <si>
+    <t>PR048</t>
+  </si>
+  <si>
+    <t>PR049</t>
+  </si>
+  <si>
+    <t>PR050</t>
   </si>
 </sst>
 </file>
@@ -207,10 +357,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;Rp&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -236,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -244,18 +400,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,16 +719,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9046BCE5-4CDA-472F-84AC-5F415F589930}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="77" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="4"/>
-    <col min="2" max="2" width="49.36328125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="32.36328125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="23.7265625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="49.36328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7265625" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="8.7265625" style="1"/>
     <col min="12" max="16384" width="8.7265625" style="1"/>
@@ -592,767 +737,768 @@
       <c r="A1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="2">
         <v>120000</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="2">
         <v>96000</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="2">
         <v>240000</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="2">
         <v>192000</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="2">
         <v>110000</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="2">
         <v>88000</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="2">
         <v>1000</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="2">
         <v>800</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="2">
         <v>250000</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="2">
         <v>200000</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="2">
         <v>350000</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="2">
         <v>280000</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="2">
         <v>15000</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="2">
         <v>12000</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="2">
         <v>3600000</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="2">
         <v>2880000</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="2">
         <v>70000</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="2">
         <v>56000</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="2">
         <v>10000</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="2">
         <v>8000</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="2">
         <v>75000</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="2">
         <v>60000</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="2">
         <v>1200000</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="2">
         <v>960000</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="2">
         <v>700000</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="2">
         <v>560000</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="2">
         <v>3500000</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="2">
         <v>2800000</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="2">
         <v>1700000</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="2">
         <v>1360000</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5" t="s">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="2">
         <v>140000</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="2">
         <v>112000</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5" t="s">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="2">
         <v>450000</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="2">
         <v>360000</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="2">
         <v>80000</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="2">
         <v>64000</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="4">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5" t="s">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="2">
         <v>50000</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="2">
         <v>40000</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="4">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5" t="s">
+      <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="2">
         <v>95000</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="2">
         <v>76000</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="4">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5" t="s">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="2">
         <v>65000</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="2">
         <v>52000</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="4">
-        <v>22</v>
-      </c>
-      <c r="B23" s="5" t="s">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="2">
         <v>60000</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="2">
         <v>48000</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="4">
-        <v>23</v>
-      </c>
-      <c r="B24" s="5" t="s">
+      <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="2">
         <v>35000</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="2">
         <v>28000</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="4">
-        <v>24</v>
-      </c>
-      <c r="B25" s="5" t="s">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="2">
         <v>30000</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="2">
         <v>24000</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="4">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5" t="s">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="2">
         <v>25000</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="2">
         <v>20000</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="4">
-        <v>26</v>
-      </c>
-      <c r="B27" s="5" t="s">
+      <c r="A27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="2">
         <v>65000</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="2">
         <v>52000</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="4">
-        <v>27</v>
-      </c>
-      <c r="B28" s="5" t="s">
+      <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="2">
         <v>100000</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="2">
         <v>80000</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="4">
-        <v>28</v>
-      </c>
-      <c r="B29" s="5" t="s">
+      <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="2">
         <v>320000</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="2">
         <v>256000</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="4">
-        <v>29</v>
-      </c>
-      <c r="B30" s="5" t="s">
+      <c r="A30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="2">
         <v>600000</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="2">
         <v>480000</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="4">
-        <v>30</v>
-      </c>
-      <c r="B31" s="5" t="s">
+      <c r="A31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="2">
         <v>1600000</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="2">
         <v>1280000</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="4">
-        <v>31</v>
-      </c>
-      <c r="B32" s="5" t="s">
+      <c r="A32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="2">
         <v>50000</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="2">
         <v>40000</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="4">
-        <v>32</v>
-      </c>
-      <c r="B33" s="5" t="s">
+      <c r="A33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="2">
         <v>240000</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="2">
         <v>192000</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="4">
-        <v>33</v>
-      </c>
-      <c r="B34" s="5" t="s">
+      <c r="A34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="2">
         <v>850000</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="2">
         <v>680000</v>
       </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="4">
-        <v>34</v>
-      </c>
-      <c r="B35" s="5" t="s">
+      <c r="A35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="2">
         <v>70000</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="2">
         <v>56000</v>
       </c>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="4">
-        <v>35</v>
-      </c>
-      <c r="B36" s="5" t="s">
+      <c r="A36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="2">
         <v>60000</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="2">
         <v>48000</v>
       </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="4">
-        <v>36</v>
-      </c>
-      <c r="B37" s="5" t="s">
+      <c r="A37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="2">
         <v>120000</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="2">
         <v>96000</v>
       </c>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="4">
-        <v>37</v>
-      </c>
-      <c r="B38" s="5" t="s">
+      <c r="A38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="2">
         <v>450000</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="2">
         <v>360000</v>
       </c>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="4">
-        <v>38</v>
-      </c>
-      <c r="B39" s="5" t="s">
+      <c r="A39" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="2">
         <v>45000</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="2">
         <v>36000</v>
       </c>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="4">
-        <v>39</v>
-      </c>
-      <c r="B40" s="5" t="s">
+      <c r="A40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="2">
         <v>10000</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="2">
         <v>8000</v>
       </c>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="4">
-        <v>40</v>
-      </c>
-      <c r="B41" s="5" t="s">
+      <c r="A41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="2">
         <v>5000</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="2">
         <v>4000</v>
       </c>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="4">
-        <v>41</v>
-      </c>
-      <c r="B42" s="5" t="s">
+      <c r="A42" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="2">
         <v>60000</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="2">
         <v>48000</v>
       </c>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="4">
-        <v>42</v>
-      </c>
-      <c r="B43" s="5" t="s">
+      <c r="A43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="2">
         <v>120000</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="2">
         <v>96000</v>
       </c>
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="4">
-        <v>43</v>
-      </c>
-      <c r="B44" s="5" t="s">
+      <c r="A44" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="2">
         <v>125000</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="2">
         <v>100000</v>
       </c>
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="4">
-        <v>44</v>
-      </c>
-      <c r="B45" s="5" t="s">
+      <c r="A45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="2">
         <v>25000</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="2">
         <v>20000</v>
       </c>
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="4">
-        <v>45</v>
-      </c>
-      <c r="B46" s="5" t="s">
+      <c r="A46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="2">
         <v>30000</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="2">
         <v>24000</v>
       </c>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="4">
-        <v>46</v>
-      </c>
-      <c r="B47" s="5" t="s">
+      <c r="A47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="2">
         <v>760000</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="2">
         <v>608000</v>
       </c>
       <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="4">
-        <v>47</v>
-      </c>
-      <c r="B48" s="5" t="s">
+      <c r="A48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="2">
         <v>65000</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="2">
         <v>52000</v>
       </c>
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="4">
-        <v>48</v>
-      </c>
-      <c r="B49" s="5" t="s">
+      <c r="A49" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="2">
         <v>70000</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="2">
         <v>56000</v>
       </c>
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="4">
-        <v>49</v>
-      </c>
-      <c r="B50" s="5" t="s">
+      <c r="A50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="2">
         <v>35000</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="2">
         <v>28000</v>
       </c>
       <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="4">
-        <v>50</v>
-      </c>
-      <c r="B51" s="5" t="s">
+      <c r="A51" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="2">
         <v>80000</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="2">
         <v>65000</v>
       </c>
       <c r="E51" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
